--- a/自动化小脚本/平安sdwan/PingAnNet2/工具源标准数据V1.2.xlsx
+++ b/自动化小脚本/平安sdwan/PingAnNet2/工具源标准数据V1.2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="176">
   <si>
     <t>局点类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>无需填写</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>IP规划</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -860,9 +856,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>CORE_TO_AR2</t>
-  </si>
-  <si>
     <t>CORE_TO_FW(WAN)</t>
   </si>
   <si>
@@ -893,18 +886,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>USG6510-AC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIFE-SW-HB-CD-TXHGJ-S2700EI-AP-01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIFE-SW-HB-CD-TXHGJ-S2700EI-PC-02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>133.19.52.0</t>
   </si>
   <si>
@@ -936,19 +917,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CORE_TO_AR1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不堆叠</t>
-  </si>
-  <si>
-    <t>楼层接入交换机</t>
-  </si>
-  <si>
-    <t>S2700-26TP-EI</t>
-  </si>
-  <si>
     <t>WIFI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -969,12 +937,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DE直路防火墙</t>
+    <t>CORE_TO_AR1</t>
+  </si>
+  <si>
+    <t>CORE_TOAR2</t>
+  </si>
+  <si>
+    <t>E类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIFE-SW-HB-CD-TXHGJ-S2750-AP-01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2750-28TP-PWR-EI</t>
+  </si>
+  <si>
+    <t>楼层接入交换机</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A类</t>
+    <t>S3700-52P-EI-AC-PWR</t>
+  </si>
+  <si>
+    <t>LIFE-SW-HB-CD-TXHGJ-S3700EI-AP-01</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不堆叠</t>
   </si>
 </sst>
 </file>
@@ -1589,14 +1580,14 @@
   <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="43.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
@@ -1614,7 +1605,7 @@
     </row>
     <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1652,56 +1643,46 @@
     </row>
     <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>171</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="17.25">
@@ -1890,7 +1871,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1902,7 +1883,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1914,7 +1895,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1926,7 +1907,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1938,7 +1919,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1950,7 +1931,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1962,7 +1943,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -1974,7 +1955,7 @@
     </row>
     <row r="38" spans="1:8" ht="14.25" thickBot="1">
       <c r="A38" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1984,510 +1965,510 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" ht="27.75" thickBot="1">
+    <row r="39" spans="1:8" ht="14.25" thickBot="1">
       <c r="A39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="C43" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="C48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="C49" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1">
       <c r="A50" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="C50" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="C51" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" thickBot="1">
       <c r="A52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C52" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" thickBot="1">
       <c r="A53" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="C54" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1">
       <c r="A55" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="C56" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1">
       <c r="A57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="C57" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" thickBot="1">
       <c r="A58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="C58" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" thickBot="1">
       <c r="A59" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" thickBot="1">
       <c r="A60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" thickBot="1">
       <c r="A61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="C62" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1">
       <c r="A63" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="C63" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" thickBot="1">
       <c r="A64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="C64" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1">
       <c r="A65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="C65" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" thickBot="1">
       <c r="A66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="C66" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1">
       <c r="A67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" thickBot="1">
       <c r="A68" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C68" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" thickBot="1">
       <c r="A69" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="C69" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1">
       <c r="A70" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="C70" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1">
       <c r="A71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="C71" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" thickBot="1">
       <c r="A72" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" thickBot="1">
       <c r="A73" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" thickBot="1">
       <c r="A74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" thickBot="1">
       <c r="A75" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" thickBot="1">
       <c r="A76" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" thickBot="1">
       <c r="A77" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" thickBot="1">
       <c r="A78" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" thickBot="1">
       <c r="A79" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1">
       <c r="A80" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" thickBot="1">
       <c r="A81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" thickBot="1">
       <c r="A82" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1">
       <c r="A83" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" thickBot="1">
       <c r="A84" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="C84" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2610,14 +2591,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"A类,B类,C类,D类,E类"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B26 B5:B6">
       <formula1>"核心交换机,ABC旁路防火墙,DE直路防火墙,楼层级连接入交换机,楼层接入交换机,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C26">
-      <formula1>"S5720-32C-HI-24S-AC,S5720-36PC-EI-AC,USG6550,USG6530,USG6507,USG6510,S5720-52X-PWR-LI,S2720-28TP-PWR-EI,S2750-28TP-PWR-EI,S2700-26TP-EI,S2700-26TP-EI,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D28 D5:D6">
+      <formula1>"不堆叠,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D28">
-      <formula1>"不堆叠,2,3,4"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C26 C5:C6">
+      <formula1>"S5720-32C-HI-24S-AC,S5720-36PC-EI-AC,USG6550,USG6530,USG6507,USG6510,S5720-52X-PWR-LI,S2720-28TP-PWR-EI,S2750-28TP-PWR-EI,S2700-26TP-EI,S2700-26TP-EI,S3700-52P-EI-AC-PWR"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2627,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2643,7 +2624,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2653,27 +2634,27 @@
     </row>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -2682,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2691,7 +2672,7 @@
     </row>
     <row r="4" spans="1:6" ht="17.25">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3">
         <v>25</v>
@@ -2700,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -2709,7 +2690,7 @@
     </row>
     <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3">
         <v>25</v>
@@ -2718,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2727,7 +2708,7 @@
     </row>
     <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B6" s="3">
         <v>25</v>
@@ -2736,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2745,7 +2726,7 @@
     </row>
     <row r="7" spans="1:6" ht="17.25">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3">
         <v>25</v>
@@ -2754,7 +2735,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -2763,7 +2744,7 @@
     </row>
     <row r="8" spans="1:6" ht="17.25">
       <c r="A8" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3">
         <v>26</v>
@@ -2772,7 +2753,7 @@
         <v>4094</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2781,7 +2762,7 @@
     </row>
     <row r="9" spans="1:6" ht="17.25">
       <c r="A9" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B9" s="3">
         <v>29</v>
@@ -2790,7 +2771,7 @@
         <v>167</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2799,16 +2780,16 @@
     </row>
     <row r="10" spans="1:6" ht="17.25">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B10" s="3">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2817,16 +2798,16 @@
     </row>
     <row r="11" spans="1:6" ht="17.25">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B11" s="3">
         <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -2835,16 +2816,16 @@
     </row>
     <row r="12" spans="1:6" ht="17.25">
       <c r="A12" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3">
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -2852,13 +2833,31 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="17.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C14">
+      <formula1>"2,3,4,5,6,4094,CORE_TO_AR1,CORE_TOAR2,CORE_TO_FW(WAN),CORE_TO_FW(LAN),7,8"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -2869,7 +2868,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2880,32 +2879,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
-        <v>152</v>
+      <c r="B2" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>150</v>
+      <c r="B3" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>151</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B4" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
